--- a/PCB Bill Of Materials.xlsx
+++ b/PCB Bill Of Materials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4cc17b8640d0f1b9/Documents/Coding Projects/Arduino 2020/Switch Box Robot/Switch-Box-Robot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\OneDrive\Documents\College\Clubs\Critical Tinkers\Switch Box Robot\Switch-Box-Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_F25DC773A252ABDACC10485D499E79FA5BDE58E8" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F9C611A8-A29D-47D8-99EE-0F7C409933A3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938F1E7D-1C6B-4156-A950-8BACAA5746B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-4050" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>Part</t>
   </si>
@@ -78,12 +78,6 @@
     <t>Toggle Switch</t>
   </si>
   <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
     <t>SW1, SW3</t>
   </si>
   <si>
@@ -102,18 +96,9 @@
     <t>311-2956-2-ND</t>
   </si>
   <si>
-    <t>732-1935-ND</t>
-  </si>
-  <si>
-    <t>732-4896-5-ND</t>
-  </si>
-  <si>
     <t>Have Already?</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -139,6 +124,36 @@
   </si>
   <si>
     <t>100DP1T2B3M2QEH</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>TVS Diode</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>SSW-104-01-T-D</t>
+  </si>
+  <si>
+    <t>SSQ-102-01-G-S</t>
+  </si>
+  <si>
+    <t>SMBJ5.0A-13-F</t>
+  </si>
+  <si>
+    <t>SAM1212-04-ND</t>
+  </si>
+  <si>
+    <t>SMBJ5.0A-FDICT-ND</t>
+  </si>
+  <si>
+    <t>SMB</t>
   </si>
 </sst>
 </file>
@@ -456,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +482,7 @@
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -494,7 +509,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -505,10 +520,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>8</v>
@@ -520,7 +535,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -528,13 +543,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>64900829522</v>
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -543,7 +558,7 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -551,13 +566,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>662002230822</v>
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -566,7 +581,7 @@
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -574,13 +589,13 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -589,7 +604,7 @@
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -597,13 +612,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -612,7 +627,7 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -620,13 +635,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -635,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -643,13 +658,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -658,10 +673,34 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>